--- a/generadas/LEBAC 35 DIAS TNC PF-7.xlsx
+++ b/generadas/LEBAC 35 DIAS TNC PF-7.xlsx
@@ -25,7 +25,7 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>26-Apr-2016</t>
+    <t>31-May-2016</t>
   </si>
   <si>
     <t>CÓDIGO AGENTE:</t>
@@ -70,34 +70,34 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>20-10923724-9</t>
-  </si>
-  <si>
-    <t>20-28382063-8</t>
-  </si>
-  <si>
-    <t>20-28169796-0</t>
-  </si>
-  <si>
-    <t>27-25754891-6</t>
-  </si>
-  <si>
-    <t>27-26716266-8</t>
-  </si>
-  <si>
-    <t>20-17371821-8</t>
-  </si>
-  <si>
-    <t>27-23125098-6</t>
-  </si>
-  <si>
-    <t>20-26146040-9</t>
-  </si>
-  <si>
-    <t>23-12046099-4</t>
-  </si>
-  <si>
-    <t>27-34390328-1</t>
+    <t>27-00996567-5</t>
+  </si>
+  <si>
+    <t>20-26592803-0</t>
+  </si>
+  <si>
+    <t>27-03763554-0</t>
+  </si>
+  <si>
+    <t>27-05968312-3</t>
+  </si>
+  <si>
+    <t>27-05753232-2</t>
+  </si>
+  <si>
+    <t>27-12907330-1</t>
+  </si>
+  <si>
+    <t>27-24004961-4</t>
+  </si>
+  <si>
+    <t>27-13872778-0</t>
+  </si>
+  <si>
+    <t>23-32956072-4</t>
+  </si>
+  <si>
+    <t>20-04183704-8</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18">
-        <v>25000</v>
+        <v>155000</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="37" t="s">
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="22">
-        <v>20000</v>
+        <v>365000</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="33" t="s">
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="22">
-        <v>165000</v>
+        <v>20000</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="33" t="s">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="22">
-        <v>83000</v>
+        <v>246000</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="33" t="s">
@@ -1270,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="22">
-        <v>51000</v>
+        <v>19000</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="33" t="s">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="22">
-        <v>87000</v>
+        <v>42000</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="33" t="s">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="22">
-        <v>155000</v>
+        <v>39000</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="33" t="s">
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="22">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="33" t="s">
@@ -1326,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="22">
-        <v>723000</v>
+        <v>41000</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="33" t="s">
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="26">
-        <v>21000</v>
+        <v>908000</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="33" t="s">
@@ -1578,7 +1578,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="1.1811023622047" bottom="0.98425196850394" header="0.51" footer="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="1.18110236220472" bottom="0.984251968503937" header="0.51" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait" scale="85" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
